--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32593.4061233518</v>
+        <v>6486087.818547009</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32593.4061233518</v>
+        <v>6486087.818547009</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15712.12894002418</v>
+        <v>942727.7364014507</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15712.12894002418</v>
+        <v>942727.7364014507</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342269104.139849</v>
+        <v>54005795.80651009</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11719.4246546638</v>
+        <v>1228588.29677822</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22674.4807013082</v>
+        <v>2330543.20706924</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33629.53674795258</v>
+        <v>3432498.117360261</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45157.65044564717</v>
+        <v>4497791.393457893</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56685.76414334174</v>
+        <v>5563084.669555524</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68213.8778410363</v>
+        <v>6628377.945653154</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79741.99153873086</v>
+        <v>7693671.221750781</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91270.10523642541</v>
+        <v>8758964.497848406</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102798.21893412</v>
+        <v>9824257.773946034</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114326.3326318146</v>
+        <v>10889551.05004366</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125426.7781552545</v>
+        <v>11991523.94282891</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136527.1333144019</v>
+        <v>13093478.85311994</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147627.4884735493</v>
+        <v>14195433.76341096</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159155.5118069513</v>
+        <v>15260709.05701437</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170683.6255046458</v>
+        <v>16326002.33311201</v>
       </c>
     </row>
   </sheetData>
